--- a/GUI/Version4/Plots for Sunday June 17.xlsx
+++ b/GUI/Version4/Plots for Sunday June 17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1020" windowWidth="26600" windowHeight="14260" xr2:uid="{3FAA666C-E90C-5E4F-8912-C9A9417F66B4}"/>
+    <workbookView xWindow="1580" yWindow="1020" windowWidth="26600" windowHeight="14260" xr2:uid="{3FAA666C-E90C-5E4F-8912-C9A9417F66B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>y</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Case 3</t>
+  </si>
+  <si>
+    <t>Run at 1000 3 times and see if there is variance or it is consistent enough to use that number of sims</t>
+  </si>
+  <si>
+    <t>Boxplot idea:</t>
+  </si>
+  <si>
+    <t>Instead of two plots per nvar, take the difference on each run and plot in box plot</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5D90E-E826-B141-89DF-FB36A63146DC}">
-  <dimension ref="B3:H21"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +489,7 @@
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -490,8 +499,11 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -504,8 +516,11 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -513,17 +528,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -537,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -548,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>21</v>
       </c>
@@ -556,12 +571,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -575,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -586,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>21</v>
       </c>

--- a/GUI/Version4/Plots for Sunday June 17.xlsx
+++ b/GUI/Version4/Plots for Sunday June 17.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1020" windowWidth="26600" windowHeight="14260" xr2:uid="{3FAA666C-E90C-5E4F-8912-C9A9417F66B4}"/>
+    <workbookView xWindow="1580" yWindow="1020" windowWidth="29700" windowHeight="18400" activeTab="1" xr2:uid="{3FAA666C-E90C-5E4F-8912-C9A9417F66B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>y</t>
   </si>
@@ -118,13 +120,122 @@
   </si>
   <si>
     <t>Instead of two plots per nvar, take the difference on each run and plot in box plot</t>
+  </si>
+  <si>
+    <r>
+      <t>Precision-recall F measure (van Rijsbergen, 1979). Weighted harmonic mean of precision (P) and recall (R). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F = 1/ (alpha*1/P + (1-alpha)*1/R)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alpha=1/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the mean is balanced. A frequent equivalent formulation is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F = (beta^2+1) * P * R / (R + beta^2 * P)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. In this formulation, the mean is balanced if </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>beta=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Currently, ROCR only accepts the alpha version as input (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>alpha=0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>). If no value for alpha is given, the mean will be balanced by default.</t>
+    </r>
+  </si>
+  <si>
+    <t>True pos</t>
+  </si>
+  <si>
+    <t>14 / 17</t>
+  </si>
+  <si>
+    <t>True neg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +250,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,9 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,6 +307,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99B9512-D615-8345-9FB4-4C150CCA2781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7035800" y="419100"/>
+          <a:ext cx="4907280" cy="3299460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>572770</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>422910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549910</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF634B2-BE63-054C-A3F3-8B4F636969D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12358370" y="422910"/>
+          <a:ext cx="4930140" cy="3291840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC5D90E-E826-B141-89DF-FB36A63146DC}">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -645,4 +926,388 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8950D-B6A2-AF4C-A05D-1DE2D33111B1}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>1 / (0.5 * 1 / 0.81 + (1-0.5) * 1 / 0.11)</f>
+        <v>0.19369565217391302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5842C954-1FE7-6146-AC67-76C1CFA6586F}">
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <f>SUM(A1:AD1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <f>SUM(A2:AD2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" t="b">
+        <f>A1=A2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <f t="shared" ref="B3:AC3" si="0">B1=B2</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD3" t="b">
+        <f>AD1=AD2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <f xml:space="preserve"> 14 / 17</f>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
+        <f xml:space="preserve"> 7 / 30</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="C6">
+        <f xml:space="preserve"> 7 / 30</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>